--- a/natmiOut/OldD4/LR-pairs_lrc2p/Efnb3-Epha4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Efnb3-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -85,10 +94,7 @@
     <t>Epha4</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.967190844127466</v>
+        <v>0.08736233333333333</v>
       </c>
       <c r="H2">
-        <v>0.967190844127466</v>
+        <v>0.262087</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.05767651158852535</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.07409173752753136</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.36173227849925</v>
+        <v>7.727270999999999</v>
       </c>
       <c r="N2">
-        <v>7.36173227849925</v>
+        <v>23.181813</v>
       </c>
       <c r="O2">
-        <v>0.4506279295385468</v>
+        <v>0.4492515923977304</v>
       </c>
       <c r="P2">
-        <v>0.4506279295385468</v>
+        <v>0.4784711627054499</v>
       </c>
       <c r="Q2">
-        <v>7.120200056682104</v>
+        <v>0.6750724248589999</v>
       </c>
       <c r="R2">
-        <v>7.120200056682104</v>
+        <v>6.075651823731</v>
       </c>
       <c r="S2">
-        <v>0.4506279295385468</v>
+        <v>0.02591126467509117</v>
       </c>
       <c r="T2">
-        <v>0.4506279295385468</v>
+        <v>0.03545075980166495</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.967190844127466</v>
+        <v>0.08736233333333333</v>
       </c>
       <c r="H3">
-        <v>0.967190844127466</v>
+        <v>0.262087</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.05767651158852535</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.07409173752753136</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.97705345708693</v>
+        <v>6.292848333333333</v>
       </c>
       <c r="N3">
-        <v>5.97705345708693</v>
+        <v>18.878545</v>
       </c>
       <c r="O3">
-        <v>0.3658686735966679</v>
+        <v>0.3658564756519351</v>
       </c>
       <c r="P3">
-        <v>0.3658686735966679</v>
+        <v>0.3896519817642027</v>
       </c>
       <c r="Q3">
-        <v>5.780951378554897</v>
+        <v>0.5497579137127777</v>
       </c>
       <c r="R3">
-        <v>5.780951378554897</v>
+        <v>4.947821223415</v>
       </c>
       <c r="S3">
-        <v>0.3658686735966679</v>
+        <v>0.02110132525767588</v>
       </c>
       <c r="T3">
-        <v>0.3658686735966679</v>
+        <v>0.02886999235995574</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +649,1115 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.08736233333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.262087</v>
+      </c>
+      <c r="I4">
+        <v>0.05767651158852535</v>
+      </c>
+      <c r="J4">
+        <v>0.07409173752753136</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.021228</v>
+      </c>
+      <c r="N4">
+        <v>0.063684</v>
+      </c>
+      <c r="O4">
+        <v>0.001234163109255392</v>
+      </c>
+      <c r="P4">
+        <v>0.001314433755709007</v>
+      </c>
+      <c r="Q4">
+        <v>0.001854527612</v>
+      </c>
+      <c r="R4">
+        <v>0.016690748508</v>
+      </c>
+      <c r="S4">
+        <v>7.11822228730991E-05</v>
+      </c>
+      <c r="T4">
+        <v>9.7388680825319E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.08736233333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.262087</v>
+      </c>
+      <c r="I5">
+        <v>0.05767651158852535</v>
+      </c>
+      <c r="J5">
+        <v>0.07409173752753136</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.007773333333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.02332</v>
+      </c>
+      <c r="O5">
+        <v>0.0004519295852621654</v>
+      </c>
+      <c r="P5">
+        <v>0.0004813233336965963</v>
+      </c>
+      <c r="Q5">
+        <v>0.0006790965377777778</v>
+      </c>
+      <c r="R5">
+        <v>0.00611186884</v>
+      </c>
+      <c r="S5">
+        <v>2.606572196157074E-05</v>
+      </c>
+      <c r="T5">
+        <v>3.56620821061246E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.08736233333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.262087</v>
+      </c>
+      <c r="I6">
+        <v>0.05767651158852535</v>
+      </c>
+      <c r="J6">
+        <v>0.07409173752753136</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3.151199</v>
+      </c>
+      <c r="N6">
+        <v>6.302398</v>
+      </c>
+      <c r="O6">
+        <v>0.183205839255817</v>
+      </c>
+      <c r="P6">
+        <v>0.1300810984409417</v>
+      </c>
+      <c r="Q6">
+        <v>0.2752960974376667</v>
+      </c>
+      <c r="R6">
+        <v>1.651776584626</v>
+      </c>
+      <c r="S6">
+        <v>0.01056667371092364</v>
+      </c>
+      <c r="T6">
+        <v>0.009637934602979221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.3509106666666666</v>
+      </c>
+      <c r="H7">
+        <v>1.052732</v>
+      </c>
+      <c r="I7">
+        <v>0.2316708169333521</v>
+      </c>
+      <c r="J7">
+        <v>0.2976063026049867</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>7.727270999999999</v>
+      </c>
+      <c r="N7">
+        <v>23.181813</v>
+      </c>
+      <c r="O7">
+        <v>0.4492515923977304</v>
+      </c>
+      <c r="P7">
+        <v>0.4784711627054499</v>
+      </c>
+      <c r="Q7">
+        <v>2.711581818123999</v>
+      </c>
+      <c r="R7">
+        <v>24.404236363116</v>
+      </c>
+      <c r="S7">
+        <v>0.1040784834193915</v>
+      </c>
+      <c r="T7">
+        <v>0.1423960336358779</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.3509106666666666</v>
+      </c>
+      <c r="H8">
+        <v>1.052732</v>
+      </c>
+      <c r="I8">
+        <v>0.2316708169333521</v>
+      </c>
+      <c r="J8">
+        <v>0.2976063026049867</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>6.292848333333333</v>
+      </c>
+      <c r="N8">
+        <v>18.878545</v>
+      </c>
+      <c r="O8">
+        <v>0.3658564756519351</v>
+      </c>
+      <c r="P8">
+        <v>0.3896519817642027</v>
+      </c>
+      <c r="Q8">
+        <v>2.208227603882222</v>
+      </c>
+      <c r="R8">
+        <v>19.87404843494</v>
+      </c>
+      <c r="S8">
+        <v>0.08475826859464086</v>
+      </c>
+      <c r="T8">
+        <v>0.1159628855955501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.3509106666666666</v>
+      </c>
+      <c r="H9">
+        <v>1.052732</v>
+      </c>
+      <c r="I9">
+        <v>0.2316708169333521</v>
+      </c>
+      <c r="J9">
+        <v>0.2976063026049867</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.021228</v>
+      </c>
+      <c r="N9">
+        <v>0.063684</v>
+      </c>
+      <c r="O9">
+        <v>0.001234163109255392</v>
+      </c>
+      <c r="P9">
+        <v>0.001314433755709007</v>
+      </c>
+      <c r="Q9">
+        <v>0.007449131632</v>
+      </c>
+      <c r="R9">
+        <v>0.06704218468800001</v>
+      </c>
+      <c r="S9">
+        <v>0.0002859195757502026</v>
+      </c>
+      <c r="T9">
+        <v>0.0003911837700557438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.3509106666666666</v>
+      </c>
+      <c r="H10">
+        <v>1.052732</v>
+      </c>
+      <c r="I10">
+        <v>0.2316708169333521</v>
+      </c>
+      <c r="J10">
+        <v>0.2976063026049867</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.007773333333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.02332</v>
+      </c>
+      <c r="O10">
+        <v>0.0004519295852621654</v>
+      </c>
+      <c r="P10">
+        <v>0.0004813233336965963</v>
+      </c>
+      <c r="Q10">
+        <v>0.002727745582222222</v>
+      </c>
+      <c r="R10">
+        <v>0.02454971024</v>
+      </c>
+      <c r="S10">
+        <v>0.0001046988962140369</v>
+      </c>
+      <c r="T10">
+        <v>0.0001432448576989502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.3509106666666666</v>
+      </c>
+      <c r="H11">
+        <v>1.052732</v>
+      </c>
+      <c r="I11">
+        <v>0.2316708169333521</v>
+      </c>
+      <c r="J11">
+        <v>0.2976063026049867</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.151199</v>
+      </c>
+      <c r="N11">
+        <v>6.302398</v>
+      </c>
+      <c r="O11">
+        <v>0.183205839255817</v>
+      </c>
+      <c r="P11">
+        <v>0.1300810984409417</v>
+      </c>
+      <c r="Q11">
+        <v>1.105789341889333</v>
+      </c>
+      <c r="R11">
+        <v>6.634736051336001</v>
+      </c>
+      <c r="S11">
+        <v>0.04244344644735551</v>
+      </c>
+      <c r="T11">
+        <v>0.03871295474580395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.967190844127466</v>
-      </c>
-      <c r="H4">
-        <v>0.967190844127466</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>2.99782324033289</v>
-      </c>
-      <c r="N4">
-        <v>2.99782324033289</v>
-      </c>
-      <c r="O4">
-        <v>0.1835033968647853</v>
-      </c>
-      <c r="P4">
-        <v>0.1835033968647853</v>
-      </c>
-      <c r="Q4">
-        <v>2.899467190362503</v>
-      </c>
-      <c r="R4">
-        <v>2.899467190362503</v>
-      </c>
-      <c r="S4">
-        <v>0.1835033968647853</v>
-      </c>
-      <c r="T4">
-        <v>0.1835033968647853</v>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.06966766666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.209003</v>
+      </c>
+      <c r="I12">
+        <v>0.0459945130873968</v>
+      </c>
+      <c r="J12">
+        <v>0.05908494285663399</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>7.727270999999999</v>
+      </c>
+      <c r="N12">
+        <v>23.181813</v>
+      </c>
+      <c r="O12">
+        <v>0.4492515923977304</v>
+      </c>
+      <c r="P12">
+        <v>0.4784711627054499</v>
+      </c>
+      <c r="Q12">
+        <v>0.538340940271</v>
+      </c>
+      <c r="R12">
+        <v>4.845068462438999</v>
+      </c>
+      <c r="S12">
+        <v>0.02066310824607126</v>
+      </c>
+      <c r="T12">
+        <v>0.02827044130699874</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.06966766666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.209003</v>
+      </c>
+      <c r="I13">
+        <v>0.0459945130873968</v>
+      </c>
+      <c r="J13">
+        <v>0.05908494285663399</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.292848333333333</v>
+      </c>
+      <c r="N13">
+        <v>18.878545</v>
+      </c>
+      <c r="O13">
+        <v>0.3658564756519351</v>
+      </c>
+      <c r="P13">
+        <v>0.3896519817642027</v>
+      </c>
+      <c r="Q13">
+        <v>0.4384080600705555</v>
+      </c>
+      <c r="R13">
+        <v>3.945672540635</v>
+      </c>
+      <c r="S13">
+        <v>0.0168273904574818</v>
+      </c>
+      <c r="T13">
+        <v>0.02302256507651211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.06966766666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.209003</v>
+      </c>
+      <c r="I14">
+        <v>0.0459945130873968</v>
+      </c>
+      <c r="J14">
+        <v>0.05908494285663399</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.021228</v>
+      </c>
+      <c r="N14">
+        <v>0.063684</v>
+      </c>
+      <c r="O14">
+        <v>0.001234163109255392</v>
+      </c>
+      <c r="P14">
+        <v>0.001314433755709007</v>
+      </c>
+      <c r="Q14">
+        <v>0.001478905228</v>
+      </c>
+      <c r="R14">
+        <v>0.013310147052</v>
+      </c>
+      <c r="S14">
+        <v>5.676473128062945E-05</v>
+      </c>
+      <c r="T14">
+        <v>7.766324334489747E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.06966766666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.209003</v>
+      </c>
+      <c r="I15">
+        <v>0.0459945130873968</v>
+      </c>
+      <c r="J15">
+        <v>0.05908494285663399</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.007773333333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.02332</v>
+      </c>
+      <c r="O15">
+        <v>0.0004519295852621654</v>
+      </c>
+      <c r="P15">
+        <v>0.0004813233336965963</v>
+      </c>
+      <c r="Q15">
+        <v>0.0005415499955555556</v>
+      </c>
+      <c r="R15">
+        <v>0.00487394996</v>
+      </c>
+      <c r="S15">
+        <v>2.078628122392248E-05</v>
+      </c>
+      <c r="T15">
+        <v>2.843896166702797E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.06966766666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.209003</v>
+      </c>
+      <c r="I16">
+        <v>0.0459945130873968</v>
+      </c>
+      <c r="J16">
+        <v>0.05908494285663399</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.151199</v>
+      </c>
+      <c r="N16">
+        <v>6.302398</v>
+      </c>
+      <c r="O16">
+        <v>0.183205839255817</v>
+      </c>
+      <c r="P16">
+        <v>0.1300810984409417</v>
+      </c>
+      <c r="Q16">
+        <v>0.2195366815323334</v>
+      </c>
+      <c r="R16">
+        <v>1.317220089194</v>
+      </c>
+      <c r="S16">
+        <v>0.008426463371339187</v>
+      </c>
+      <c r="T16">
+        <v>0.007685834268111222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.0067545</v>
+      </c>
+      <c r="H17">
+        <v>2.013509</v>
+      </c>
+      <c r="I17">
+        <v>0.6646581583907257</v>
+      </c>
+      <c r="J17">
+        <v>0.569217017010848</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>7.727270999999999</v>
+      </c>
+      <c r="N17">
+        <v>23.181813</v>
+      </c>
+      <c r="O17">
+        <v>0.4492515923977304</v>
+      </c>
+      <c r="P17">
+        <v>0.4784711627054499</v>
+      </c>
+      <c r="Q17">
+        <v>7.779464851969499</v>
+      </c>
+      <c r="R17">
+        <v>46.67678911181699</v>
+      </c>
+      <c r="S17">
+        <v>0.2985987360571765</v>
+      </c>
+      <c r="T17">
+        <v>0.2723539279609083</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.0067545</v>
+      </c>
+      <c r="H18">
+        <v>2.013509</v>
+      </c>
+      <c r="I18">
+        <v>0.6646581583907257</v>
+      </c>
+      <c r="J18">
+        <v>0.569217017010848</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>6.292848333333333</v>
+      </c>
+      <c r="N18">
+        <v>18.878545</v>
+      </c>
+      <c r="O18">
+        <v>0.3658564756519351</v>
+      </c>
+      <c r="P18">
+        <v>0.3896519817642027</v>
+      </c>
+      <c r="Q18">
+        <v>6.335353377400833</v>
+      </c>
+      <c r="R18">
+        <v>38.012120264405</v>
+      </c>
+      <c r="S18">
+        <v>0.2431694913421366</v>
+      </c>
+      <c r="T18">
+        <v>0.2217965387321848</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.0067545</v>
+      </c>
+      <c r="H19">
+        <v>2.013509</v>
+      </c>
+      <c r="I19">
+        <v>0.6646581583907257</v>
+      </c>
+      <c r="J19">
+        <v>0.569217017010848</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.021228</v>
+      </c>
+      <c r="N19">
+        <v>0.063684</v>
+      </c>
+      <c r="O19">
+        <v>0.001234163109255392</v>
+      </c>
+      <c r="P19">
+        <v>0.001314433755709007</v>
+      </c>
+      <c r="Q19">
+        <v>0.021371384526</v>
+      </c>
+      <c r="R19">
+        <v>0.128228307156</v>
+      </c>
+      <c r="S19">
+        <v>0.0008202965793514609</v>
+      </c>
+      <c r="T19">
+        <v>0.0007481980614830466</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.0067545</v>
+      </c>
+      <c r="H20">
+        <v>2.013509</v>
+      </c>
+      <c r="I20">
+        <v>0.6646581583907257</v>
+      </c>
+      <c r="J20">
+        <v>0.569217017010848</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.007773333333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.02332</v>
+      </c>
+      <c r="O20">
+        <v>0.0004519295852621654</v>
+      </c>
+      <c r="P20">
+        <v>0.0004813233336965963</v>
+      </c>
+      <c r="Q20">
+        <v>0.007825838313333333</v>
+      </c>
+      <c r="R20">
+        <v>0.04695502988</v>
+      </c>
+      <c r="S20">
+        <v>0.0003003786858626354</v>
+      </c>
+      <c r="T20">
+        <v>0.0002739774322244935</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.0067545</v>
+      </c>
+      <c r="H21">
+        <v>2.013509</v>
+      </c>
+      <c r="I21">
+        <v>0.6646581583907257</v>
+      </c>
+      <c r="J21">
+        <v>0.569217017010848</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.151199</v>
+      </c>
+      <c r="N21">
+        <v>6.302398</v>
+      </c>
+      <c r="O21">
+        <v>0.183205839255817</v>
+      </c>
+      <c r="P21">
+        <v>0.1300810984409417</v>
+      </c>
+      <c r="Q21">
+        <v>3.1724837736455</v>
+      </c>
+      <c r="R21">
+        <v>12.689935094582</v>
+      </c>
+      <c r="S21">
+        <v>0.1217692557261986</v>
+      </c>
+      <c r="T21">
+        <v>0.07404437482404731</v>
       </c>
     </row>
   </sheetData>
